--- a/mmoRpgServerFinal/src/main/resources/message/copySceneMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/copySceneMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23136" windowHeight="9240"/>
+    <workbookView windowWidth="21000" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,17 +41,123 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,122 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +208,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,31 +364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,49 +376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,85 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +402,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,41 +439,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -506,153 +460,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1007,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>

--- a/mmoRpgServerFinal/src/main/resources/message/copySceneMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/copySceneMessage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>副本id：id</t>
   </si>
@@ -35,16 +35,19 @@
   <si>
     <t>初火之炉</t>
   </si>
+  <si>
+    <t>2000,2001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,8 +65,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -71,7 +89,106 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,120 +201,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,181 +217,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,50 +402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,9 +422,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +469,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,142 +522,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,10 +1013,13 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="4" max="4" width="11.8888888888889"/>
+  </cols>
   <sheetData>
     <row r="1" ht="43.2" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -1046,7 +1055,7 @@
       <c r="C2">
         <v>300</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2000</v>
       </c>
     </row>
@@ -1060,8 +1069,8 @@
       <c r="C3">
         <v>300</v>
       </c>
-      <c r="D3">
-        <v>2001</v>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgServerFinal/src/main/resources/message/copySceneMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/copySceneMessage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>副本id：id</t>
   </si>
@@ -30,7 +30,19 @@
     <t>boss的id：bossIds</t>
   </si>
   <si>
+    <t>掉落的药品ids：medicineIds</t>
+  </si>
+  <si>
+    <t>掉落的装备ids：equipmentIds</t>
+  </si>
+  <si>
+    <t>掉落金币数量：money</t>
+  </si>
+  <si>
     <t>余火祭祀场</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
   <si>
     <t>初火之炉</t>
@@ -38,16 +50,19 @@
   <si>
     <t>2000,2001</t>
   </si>
+  <si>
+    <t>3,4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,43 +70,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,29 +89,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -182,13 +174,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +186,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,25 +226,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,67 +358,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,73 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,32 +417,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,16 +444,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -475,15 +464,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +482,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1028,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1021,7 +1036,7 @@
     <col min="4" max="4" width="11.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.2" spans="1:14">
+    <row r="1" ht="57.6" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,9 +1049,15 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1045,12 +1066,12 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>300</v>
@@ -1058,19 +1079,37 @@
       <c r="D2" s="2">
         <v>2000</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgServerFinal/src/main/resources/message/copySceneMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/copySceneMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9240"/>
+    <workbookView windowWidth="14280" windowHeight="8255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -81,6 +112,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -88,6 +134,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -95,55 +165,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,63 +210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +417,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,65 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -517,6 +508,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
